--- a/data/pca/factorExposure/factorExposure_2009-11-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.007451820751611624</v>
+        <v>0.0164902822700133</v>
       </c>
       <c r="C2">
-        <v>0.001608671377099467</v>
+        <v>0.0008615485479797532</v>
       </c>
       <c r="D2">
-        <v>0.008008274772884598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008827607014086034</v>
+      </c>
+      <c r="E2">
+        <v>-0.001084020754506092</v>
+      </c>
+      <c r="F2">
+        <v>-0.01222658658152798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1013108951546584</v>
+        <v>0.09388065999506739</v>
       </c>
       <c r="C4">
-        <v>0.0454692794625698</v>
+        <v>0.01482951968490328</v>
       </c>
       <c r="D4">
-        <v>0.04827877634533011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08482086689049162</v>
+      </c>
+      <c r="E4">
+        <v>-0.0283173448286993</v>
+      </c>
+      <c r="F4">
+        <v>0.03143138110067668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1300313158594354</v>
+        <v>0.1580523966576605</v>
       </c>
       <c r="C6">
-        <v>0.05406852079050121</v>
+        <v>0.02569336367087643</v>
       </c>
       <c r="D6">
-        <v>-0.03960512155708261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02106949242082585</v>
+      </c>
+      <c r="E6">
+        <v>-0.01189314199111566</v>
+      </c>
+      <c r="F6">
+        <v>0.04509204194827518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06379944006567534</v>
+        <v>0.06331175963049308</v>
       </c>
       <c r="C7">
-        <v>0.04140193747218877</v>
+        <v>-0.001613667312700142</v>
       </c>
       <c r="D7">
-        <v>0.02541464430245518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05231734274665055</v>
+      </c>
+      <c r="E7">
+        <v>-0.009017594603417778</v>
+      </c>
+      <c r="F7">
+        <v>0.04766998087413721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04839287777572041</v>
+        <v>0.05706003851237845</v>
       </c>
       <c r="C8">
-        <v>0.04370142177211464</v>
+        <v>-0.01356351110541765</v>
       </c>
       <c r="D8">
-        <v>-0.006524499820865669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03324634466299567</v>
+      </c>
+      <c r="E8">
+        <v>-0.01762868024856596</v>
+      </c>
+      <c r="F8">
+        <v>-0.0278405612185592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08588065494823489</v>
+        <v>0.07126478057493764</v>
       </c>
       <c r="C9">
-        <v>0.03823361448599805</v>
+        <v>0.01053029185311951</v>
       </c>
       <c r="D9">
-        <v>0.04443967815648604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08646835446128431</v>
+      </c>
+      <c r="E9">
+        <v>-0.02238466568172249</v>
+      </c>
+      <c r="F9">
+        <v>0.04718858054871843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.04069202715147201</v>
+        <v>0.09407788401438766</v>
       </c>
       <c r="C10">
-        <v>0.01450131742031041</v>
+        <v>0.0210610513402142</v>
       </c>
       <c r="D10">
-        <v>-0.1356175450020923</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1681268692692048</v>
+      </c>
+      <c r="E10">
+        <v>0.03466540588124903</v>
+      </c>
+      <c r="F10">
+        <v>-0.05374332421360791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09538067051626872</v>
+        <v>0.08778365749875221</v>
       </c>
       <c r="C11">
-        <v>0.04365286163493577</v>
+        <v>0.01042770411943233</v>
       </c>
       <c r="D11">
-        <v>0.07545955702996678</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1168646360526402</v>
+      </c>
+      <c r="E11">
+        <v>-0.04603315134045011</v>
+      </c>
+      <c r="F11">
+        <v>0.02134240755702056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1000732565631028</v>
+        <v>0.0918208546459325</v>
       </c>
       <c r="C12">
-        <v>0.04871068103203451</v>
+        <v>0.007519133849237986</v>
       </c>
       <c r="D12">
-        <v>0.07813370556683343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.132483040930525</v>
+      </c>
+      <c r="E12">
+        <v>-0.04724668761779098</v>
+      </c>
+      <c r="F12">
+        <v>0.02778140231601981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03784521118089871</v>
+        <v>0.04202987189466451</v>
       </c>
       <c r="C13">
-        <v>0.01763339544491638</v>
+        <v>0.002829561133962151</v>
       </c>
       <c r="D13">
-        <v>0.03009996252518722</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05283344342820016</v>
+      </c>
+      <c r="E13">
+        <v>0.007787995389380189</v>
+      </c>
+      <c r="F13">
+        <v>0.0022807686087976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02654015416838988</v>
+        <v>0.02280676438428943</v>
       </c>
       <c r="C14">
-        <v>6.536267490547398e-05</v>
+        <v>0.0136234614370174</v>
       </c>
       <c r="D14">
-        <v>0.01636946815937403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03240164675467538</v>
+      </c>
+      <c r="E14">
+        <v>-0.01687886840596201</v>
+      </c>
+      <c r="F14">
+        <v>0.01515703061605175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03603716759935701</v>
+        <v>0.03308847663428805</v>
       </c>
       <c r="C15">
-        <v>0.01443891619697813</v>
+        <v>0.004709839016993937</v>
       </c>
       <c r="D15">
-        <v>0.01096513492300937</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04508416207082797</v>
+      </c>
+      <c r="E15">
+        <v>-0.005633656966088241</v>
+      </c>
+      <c r="F15">
+        <v>0.02327829536906663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08488037136093765</v>
+        <v>0.07457614278988059</v>
       </c>
       <c r="C16">
-        <v>0.04810766231746504</v>
+        <v>0.001246929161320168</v>
       </c>
       <c r="D16">
-        <v>0.07058706865392005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1266777170384199</v>
+      </c>
+      <c r="E16">
+        <v>-0.06163219050718748</v>
+      </c>
+      <c r="F16">
+        <v>0.0248711886820389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03345290071430473</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003443336866220615</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01750605577371717</v>
+      </c>
+      <c r="E18">
+        <v>0.007564091566525289</v>
+      </c>
+      <c r="F18">
+        <v>-0.007141773411318217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.0568293941906557</v>
+        <v>0.06103289358618837</v>
       </c>
       <c r="C20">
-        <v>0.03007464885814833</v>
+        <v>-7.11771610842443e-05</v>
       </c>
       <c r="D20">
-        <v>0.02474839540287149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0779516357948797</v>
+      </c>
+      <c r="E20">
+        <v>-0.05524662041270115</v>
+      </c>
+      <c r="F20">
+        <v>0.02423286679514167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03553814365239174</v>
+        <v>0.04051940506527765</v>
       </c>
       <c r="C21">
-        <v>0.01061346208309645</v>
+        <v>0.006521225322560525</v>
       </c>
       <c r="D21">
-        <v>0.007839461989573636</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03732012962864052</v>
+      </c>
+      <c r="E21">
+        <v>0.005298404922672526</v>
+      </c>
+      <c r="F21">
+        <v>-0.0249479648947257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02219644508945331</v>
+        <v>0.04319058584071906</v>
       </c>
       <c r="C22">
-        <v>0.01219936885630421</v>
+        <v>0.0008204833958179878</v>
       </c>
       <c r="D22">
-        <v>-0.02287757470910954</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.005939087263056469</v>
+      </c>
+      <c r="E22">
+        <v>-0.03304410121686294</v>
+      </c>
+      <c r="F22">
+        <v>-0.04129199719599257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02216992150469415</v>
+        <v>0.04318217494335583</v>
       </c>
       <c r="C23">
-        <v>0.01218691612270586</v>
+        <v>0.000816934273204611</v>
       </c>
       <c r="D23">
-        <v>-0.02289473589384788</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.005954229116914954</v>
+      </c>
+      <c r="E23">
+        <v>-0.03325271584539261</v>
+      </c>
+      <c r="F23">
+        <v>-0.04125585797934257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08982002944213265</v>
+        <v>0.08035833352057045</v>
       </c>
       <c r="C24">
-        <v>0.05048850524798417</v>
+        <v>0.001731347010095737</v>
       </c>
       <c r="D24">
-        <v>0.07825764696342966</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1215932226049299</v>
+      </c>
+      <c r="E24">
+        <v>-0.04904800600666614</v>
+      </c>
+      <c r="F24">
+        <v>0.02611823050462889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.0923028112929848</v>
+        <v>0.08482515632991346</v>
       </c>
       <c r="C25">
-        <v>0.04873379376552561</v>
+        <v>0.004218045301151859</v>
       </c>
       <c r="D25">
-        <v>0.08137995837615043</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1093500615336529</v>
+      </c>
+      <c r="E25">
+        <v>-0.0319360677068475</v>
+      </c>
+      <c r="F25">
+        <v>0.02642404320524586</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05203643322038096</v>
+        <v>0.05742394605650956</v>
       </c>
       <c r="C26">
-        <v>0.01236152264777423</v>
+        <v>0.01397205004971551</v>
       </c>
       <c r="D26">
-        <v>0.005028198260483432</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04138254822644531</v>
+      </c>
+      <c r="E26">
+        <v>-0.02719812893264353</v>
+      </c>
+      <c r="F26">
+        <v>-0.006759316780072583</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.0757046724939414</v>
+        <v>0.1406908532592017</v>
       </c>
       <c r="C28">
-        <v>0.04344532508220959</v>
+        <v>0.02109570332534038</v>
       </c>
       <c r="D28">
-        <v>-0.2497606074988414</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2619367436036693</v>
+      </c>
+      <c r="E28">
+        <v>0.06757779619579495</v>
+      </c>
+      <c r="F28">
+        <v>0.009385437332753556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02357238918173973</v>
+        <v>0.02739620913945896</v>
       </c>
       <c r="C29">
-        <v>0.002794182297059221</v>
+        <v>0.00835150816275052</v>
       </c>
       <c r="D29">
-        <v>0.007831133200336874</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03093817081447189</v>
+      </c>
+      <c r="E29">
+        <v>-0.01088888036773314</v>
+      </c>
+      <c r="F29">
+        <v>-0.01127350961458817</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09300640013567213</v>
+        <v>0.06061101253536837</v>
       </c>
       <c r="C30">
-        <v>0.05392156558185996</v>
+        <v>0.003230174780913921</v>
       </c>
       <c r="D30">
-        <v>0.04190429076332567</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08822420354004309</v>
+      </c>
+      <c r="E30">
+        <v>-0.01840755190569705</v>
+      </c>
+      <c r="F30">
+        <v>0.0808699428002516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0360844381638692</v>
+        <v>0.05018262974699609</v>
       </c>
       <c r="C31">
-        <v>0.003310157916370347</v>
+        <v>0.01512122522428169</v>
       </c>
       <c r="D31">
-        <v>0.01510276085673494</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02483662430849113</v>
+      </c>
+      <c r="E31">
+        <v>-0.02747758043485228</v>
+      </c>
+      <c r="F31">
+        <v>-0.002089960761592504</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04347444269947127</v>
+        <v>0.05005975504033956</v>
       </c>
       <c r="C32">
-        <v>0.02704089495062939</v>
+        <v>-0.001796744112920504</v>
       </c>
       <c r="D32">
-        <v>0.00602153599245747</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03653959304166015</v>
+      </c>
+      <c r="E32">
+        <v>-0.03182699423480809</v>
+      </c>
+      <c r="F32">
+        <v>0.004043234899049966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09881489846028604</v>
+        <v>0.09000654078718665</v>
       </c>
       <c r="C33">
-        <v>0.05147353684753489</v>
+        <v>0.007295793400251922</v>
       </c>
       <c r="D33">
-        <v>0.05059415059902657</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.09971621911776279</v>
+      </c>
+      <c r="E33">
+        <v>-0.04377660769806475</v>
+      </c>
+      <c r="F33">
+        <v>0.03547784887962787</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.08684879855858885</v>
+        <v>0.06807852698490634</v>
       </c>
       <c r="C34">
-        <v>0.0404825962748484</v>
+        <v>0.01018931244521212</v>
       </c>
       <c r="D34">
-        <v>0.07293817808943266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1082372966785002</v>
+      </c>
+      <c r="E34">
+        <v>-0.03468050631796344</v>
+      </c>
+      <c r="F34">
+        <v>0.03250389338869504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01925917211266625</v>
+        <v>0.02471592958023342</v>
       </c>
       <c r="C35">
-        <v>0.009988480006612462</v>
+        <v>0.002407316420151396</v>
       </c>
       <c r="D35">
-        <v>0.003403763056547849</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0112948266061711</v>
+      </c>
+      <c r="E35">
+        <v>-0.0115887783112786</v>
+      </c>
+      <c r="F35">
+        <v>0.0004986334039306124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01768917363780256</v>
+        <v>0.02780321306402407</v>
       </c>
       <c r="C36">
-        <v>-0.000331200018313578</v>
+        <v>0.006908055402804134</v>
       </c>
       <c r="D36">
-        <v>0.02766616132773798</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03939469404180591</v>
+      </c>
+      <c r="E36">
+        <v>-0.01616193065926551</v>
+      </c>
+      <c r="F36">
+        <v>0.01489011712901379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0002411793376312319</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.000138453973558051</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.0001247461561196146</v>
+      </c>
+      <c r="E37">
+        <v>0.0004493198860412977</v>
+      </c>
+      <c r="F37">
+        <v>0.0007354001718443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.001905619488636203</v>
+        <v>0.00113156001535012</v>
       </c>
       <c r="C38">
-        <v>0.001129985502869627</v>
+        <v>0.0001925918357864987</v>
       </c>
       <c r="D38">
-        <v>-0.001917926641157666</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.000515038349272989</v>
+      </c>
+      <c r="E38">
+        <v>-0.0001137575504577823</v>
+      </c>
+      <c r="F38">
+        <v>-0.0007597702202462192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.127961194858353</v>
+        <v>0.1052559178423388</v>
       </c>
       <c r="C39">
-        <v>0.05892660565011874</v>
+        <v>0.01565238912965008</v>
       </c>
       <c r="D39">
-        <v>0.1152617411359204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1533609234459071</v>
+      </c>
+      <c r="E39">
+        <v>-0.05792578609627812</v>
+      </c>
+      <c r="F39">
+        <v>0.0297857165416971</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02644939474869146</v>
+        <v>0.04258826491711661</v>
       </c>
       <c r="C40">
-        <v>0.006198581144712769</v>
+        <v>0.00686749909717805</v>
       </c>
       <c r="D40">
-        <v>-0.01145316017664979</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03159289804988914</v>
+      </c>
+      <c r="E40">
+        <v>-0.003194833465103953</v>
+      </c>
+      <c r="F40">
+        <v>-0.01591132548069715</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.0211579188643524</v>
+        <v>0.02803846091507613</v>
       </c>
       <c r="C41">
-        <v>0.004283976519146678</v>
+        <v>0.006873506620802826</v>
       </c>
       <c r="D41">
-        <v>-0.005988731430531545</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0100808208828673</v>
+      </c>
+      <c r="E41">
+        <v>-0.01250407531019499</v>
+      </c>
+      <c r="F41">
+        <v>-0.006276145403565195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02333162204743166</v>
+        <v>0.04066221787746727</v>
       </c>
       <c r="C43">
-        <v>0.004160373721202156</v>
+        <v>0.006875753847182368</v>
       </c>
       <c r="D43">
-        <v>0.006296758072034922</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01930828253739135</v>
+      </c>
+      <c r="E43">
+        <v>-0.02448942593112568</v>
+      </c>
+      <c r="F43">
+        <v>-0.01308614571379763</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1048527718774107</v>
+        <v>0.07993106359621274</v>
       </c>
       <c r="C44">
-        <v>0.03983714245753979</v>
+        <v>0.01957105433846027</v>
       </c>
       <c r="D44">
-        <v>0.04327930157918806</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0975337977893895</v>
+      </c>
+      <c r="E44">
+        <v>-0.06324101838282524</v>
+      </c>
+      <c r="F44">
+        <v>0.1563001077490081</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.006903538053766872</v>
+        <v>0.02317843796628315</v>
       </c>
       <c r="C46">
-        <v>-0.00124951110822299</v>
+        <v>0.003543365026547713</v>
       </c>
       <c r="D46">
-        <v>-0.002307358432141158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01280889841703763</v>
+      </c>
+      <c r="E46">
+        <v>-0.02222888137673483</v>
+      </c>
+      <c r="F46">
+        <v>-0.006476883074659279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03701961155467012</v>
+        <v>0.05183126986567354</v>
       </c>
       <c r="C47">
-        <v>0.01737145301586897</v>
+        <v>0.003218082339013538</v>
       </c>
       <c r="D47">
-        <v>-0.02812951948192543</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01386895333046314</v>
+      </c>
+      <c r="E47">
+        <v>-0.02401802675423269</v>
+      </c>
+      <c r="F47">
+        <v>-0.03242598039681812</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04556584348761262</v>
+        <v>0.04994411371030798</v>
       </c>
       <c r="C48">
-        <v>0.02395327026944217</v>
+        <v>0.002092479692157989</v>
       </c>
       <c r="D48">
-        <v>0.0315984997964863</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05041207246858706</v>
+      </c>
+      <c r="E48">
+        <v>0.006229004500260963</v>
+      </c>
+      <c r="F48">
+        <v>0.009847834212605803</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1960721654011289</v>
+        <v>0.2009964561023856</v>
       </c>
       <c r="C49">
-        <v>0.1088850526049504</v>
+        <v>0.01885371306175085</v>
       </c>
       <c r="D49">
-        <v>-0.03511383642892694</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006340435010836996</v>
+      </c>
+      <c r="E49">
+        <v>-0.0329964543766507</v>
+      </c>
+      <c r="F49">
+        <v>0.03656812076632322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04011583298072498</v>
+        <v>0.05052231596589397</v>
       </c>
       <c r="C50">
-        <v>0.01076877625916955</v>
+        <v>0.01095802548018605</v>
       </c>
       <c r="D50">
-        <v>0.007690151062476028</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02388969258463491</v>
+      </c>
+      <c r="E50">
+        <v>-0.02938390607857227</v>
+      </c>
+      <c r="F50">
+        <v>0.00998170808724865</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0007602906505874926</v>
+        <v>0.0003978691761450723</v>
       </c>
       <c r="C51">
-        <v>0.0004190102008608468</v>
+        <v>0.0001094925559945761</v>
       </c>
       <c r="D51">
-        <v>-0.0008683017946787375</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0001482675833441555</v>
+      </c>
+      <c r="E51">
+        <v>-0.0001740632863035456</v>
+      </c>
+      <c r="F51">
+        <v>0.0009615075972693391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1446514993503325</v>
+        <v>0.1463429405835669</v>
       </c>
       <c r="C52">
-        <v>0.0783028802534855</v>
+        <v>0.01610531872931713</v>
       </c>
       <c r="D52">
-        <v>0.02955208820365276</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04345686319038824</v>
+      </c>
+      <c r="E52">
+        <v>-0.0194427260772975</v>
+      </c>
+      <c r="F52">
+        <v>0.04214022673428652</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1570437011591101</v>
+        <v>0.1717655889251506</v>
       </c>
       <c r="C53">
-        <v>0.08604045493557316</v>
+        <v>0.01922994094410382</v>
       </c>
       <c r="D53">
-        <v>-0.001856828561616902</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005752045952443439</v>
+      </c>
+      <c r="E53">
+        <v>-0.0310154263133842</v>
+      </c>
+      <c r="F53">
+        <v>0.07294446521427518</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.03103657306795491</v>
+        <v>0.02168278151271936</v>
       </c>
       <c r="C54">
-        <v>0.005921965753053818</v>
+        <v>0.01196617320033515</v>
       </c>
       <c r="D54">
-        <v>0.005801993362779462</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03388873096725585</v>
+      </c>
+      <c r="E54">
+        <v>-0.01730642827860203</v>
+      </c>
+      <c r="F54">
+        <v>-0.004814884805918638</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.09844204683040615</v>
+        <v>0.1141494221075558</v>
       </c>
       <c r="C55">
-        <v>0.04815598328253624</v>
+        <v>0.01677397005756356</v>
       </c>
       <c r="D55">
-        <v>-0.007078638642586469</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008225039735065862</v>
+      </c>
+      <c r="E55">
+        <v>-0.02687593821924512</v>
+      </c>
+      <c r="F55">
+        <v>0.04773212790396887</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1533541764901185</v>
+        <v>0.1766937224642556</v>
       </c>
       <c r="C56">
-        <v>0.08609167398705662</v>
+        <v>0.01690933910277228</v>
       </c>
       <c r="D56">
-        <v>-0.01529888209885356</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0008221929643336343</v>
+      </c>
+      <c r="E56">
+        <v>-0.03450737954794149</v>
+      </c>
+      <c r="F56">
+        <v>0.05154368519471964</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03977305170317946</v>
+        <v>0.04501934999552275</v>
       </c>
       <c r="C58">
-        <v>0.01771565500644069</v>
+        <v>-0.0003798534608553785</v>
       </c>
       <c r="D58">
-        <v>0.03568098131620966</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07077534285643228</v>
+      </c>
+      <c r="E58">
+        <v>-0.0276299963186694</v>
+      </c>
+      <c r="F58">
+        <v>-0.03659166310990816</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1060738855285141</v>
+        <v>0.1683595430455888</v>
       </c>
       <c r="C59">
-        <v>0.06010538821825735</v>
+        <v>0.02155367728069153</v>
       </c>
       <c r="D59">
-        <v>-0.2269886828967235</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2187118197127182</v>
+      </c>
+      <c r="E59">
+        <v>0.04599687933283114</v>
+      </c>
+      <c r="F59">
+        <v>-0.03602485577670142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2173446045121958</v>
+        <v>0.2316921546243731</v>
       </c>
       <c r="C60">
-        <v>0.1466573092164759</v>
+        <v>-0.002935998329847084</v>
       </c>
       <c r="D60">
-        <v>0.01865021774753558</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04314758455980758</v>
+      </c>
+      <c r="E60">
+        <v>-0.01228498150380269</v>
+      </c>
+      <c r="F60">
+        <v>-0.005446577502746261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1088046031267502</v>
+        <v>0.08153566525462405</v>
       </c>
       <c r="C61">
-        <v>0.05410713644050232</v>
+        <v>0.01147113828681455</v>
       </c>
       <c r="D61">
-        <v>0.06717725934093985</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1174284958778887</v>
+      </c>
+      <c r="E61">
+        <v>-0.03840719051533093</v>
+      </c>
+      <c r="F61">
+        <v>0.01169826965201207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1511085792724524</v>
+        <v>0.1695582786830865</v>
       </c>
       <c r="C62">
-        <v>0.08054355923154996</v>
+        <v>0.02013233067138611</v>
       </c>
       <c r="D62">
-        <v>-0.01219859519453213</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006313364187652969</v>
+      </c>
+      <c r="E62">
+        <v>-0.03376981617373061</v>
+      </c>
+      <c r="F62">
+        <v>0.03388872039470239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04281760013122648</v>
+        <v>0.04569522330932965</v>
       </c>
       <c r="C63">
-        <v>0.02181777796420108</v>
+        <v>0.00167385492415747</v>
       </c>
       <c r="D63">
-        <v>0.03471109192490435</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05927050301724571</v>
+      </c>
+      <c r="E63">
+        <v>-0.02179901879361918</v>
+      </c>
+      <c r="F63">
+        <v>0.004199502749219885</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09046527326281623</v>
+        <v>0.1097977657836491</v>
       </c>
       <c r="C64">
-        <v>0.04126348441368521</v>
+        <v>0.01101241678049964</v>
       </c>
       <c r="D64">
-        <v>0.00368565172463644</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04393954296041819</v>
+      </c>
+      <c r="E64">
+        <v>-0.02395896298603931</v>
+      </c>
+      <c r="F64">
+        <v>0.02616053401290159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1216257548674271</v>
+        <v>0.1479261258793771</v>
       </c>
       <c r="C65">
-        <v>0.04301124726674053</v>
+        <v>0.03277627546019739</v>
       </c>
       <c r="D65">
-        <v>-0.03085213030716243</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04015574802505247</v>
+      </c>
+      <c r="E65">
+        <v>-0.005495258975732299</v>
+      </c>
+      <c r="F65">
+        <v>0.03938517760788898</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.156812563974535</v>
+        <v>0.1245517945287361</v>
       </c>
       <c r="C66">
-        <v>0.08073603038944284</v>
+        <v>0.01369648091640135</v>
       </c>
       <c r="D66">
-        <v>0.1031233706072592</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1419668528371347</v>
+      </c>
+      <c r="E66">
+        <v>-0.06476306030984952</v>
+      </c>
+      <c r="F66">
+        <v>0.03283248203790382</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06039116285779674</v>
+        <v>0.06005118950300138</v>
       </c>
       <c r="C67">
-        <v>0.03391246576069952</v>
+        <v>0.003232624548234738</v>
       </c>
       <c r="D67">
-        <v>0.01733747513196424</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05523226045173096</v>
+      </c>
+      <c r="E67">
+        <v>-0.01725892475880756</v>
+      </c>
+      <c r="F67">
+        <v>-0.03320694459506603</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.06504235912291992</v>
+        <v>0.116363518851527</v>
       </c>
       <c r="C68">
-        <v>0.02297158597532106</v>
+        <v>0.03202763680993016</v>
       </c>
       <c r="D68">
-        <v>-0.2327483379362705</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2609024767146768</v>
+      </c>
+      <c r="E68">
+        <v>0.08647155920623767</v>
+      </c>
+      <c r="F68">
+        <v>0.005684694292052326</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03412463683393299</v>
+        <v>0.04001249280514765</v>
       </c>
       <c r="C69">
-        <v>0.02063339468855461</v>
+        <v>0.001294591031744781</v>
       </c>
       <c r="D69">
-        <v>-0.01170666818548047</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.00727527902364722</v>
+      </c>
+      <c r="E69">
+        <v>-0.0222740213494913</v>
+      </c>
+      <c r="F69">
+        <v>0.001017946543786233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.01207929542734335</v>
+        <v>0.06623413405878979</v>
       </c>
       <c r="C70">
-        <v>0.03059591466551513</v>
+        <v>-0.02776086162547821</v>
       </c>
       <c r="D70">
-        <v>-0.0465424703223821</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02390244186299732</v>
+      </c>
+      <c r="E70">
+        <v>0.03822588975633642</v>
+      </c>
+      <c r="F70">
+        <v>-0.1829142839005985</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.07900335010815039</v>
+        <v>0.1362011036656003</v>
       </c>
       <c r="C71">
-        <v>0.02777655889155777</v>
+        <v>0.03633539491155616</v>
       </c>
       <c r="D71">
-        <v>-0.2484313057991823</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2733523865245592</v>
+      </c>
+      <c r="E71">
+        <v>0.09664597648762735</v>
+      </c>
+      <c r="F71">
+        <v>0.01084834635513085</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1251137459705133</v>
+        <v>0.1419658875512967</v>
       </c>
       <c r="C72">
-        <v>0.05309884333380842</v>
+        <v>0.02616593593902015</v>
       </c>
       <c r="D72">
-        <v>-0.02592877388573868</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0007110410337089661</v>
+      </c>
+      <c r="E72">
+        <v>-0.03860355631579853</v>
+      </c>
+      <c r="F72">
+        <v>0.03302541148472495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1808991000635939</v>
+        <v>0.2018784666611329</v>
       </c>
       <c r="C73">
-        <v>0.1060311741429277</v>
+        <v>0.01225967329782219</v>
       </c>
       <c r="D73">
-        <v>-0.03329261070649979</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01764858195121858</v>
+      </c>
+      <c r="E73">
+        <v>-0.06488360702873691</v>
+      </c>
+      <c r="F73">
+        <v>0.0355654357894852</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09499361309856959</v>
+        <v>0.09471837302280339</v>
       </c>
       <c r="C74">
-        <v>0.05012374871069764</v>
+        <v>0.01324161078359356</v>
       </c>
       <c r="D74">
-        <v>-0.0001062791546005872</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01714958432087826</v>
+      </c>
+      <c r="E74">
+        <v>-0.04354301850357896</v>
+      </c>
+      <c r="F74">
+        <v>0.058290535532364</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1292794897888355</v>
+        <v>0.1276072649717823</v>
       </c>
       <c r="C75">
-        <v>0.05365299083153731</v>
+        <v>0.02800968989478818</v>
       </c>
       <c r="D75">
-        <v>-0.00300660234046818</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03031221808886843</v>
+      </c>
+      <c r="E75">
+        <v>-0.05740835393649109</v>
+      </c>
+      <c r="F75">
+        <v>0.02033073588760823</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0004782429333760906</v>
+        <v>0.0003004308690218206</v>
       </c>
       <c r="C76">
-        <v>0.0002100856474925871</v>
+        <v>9.037116095429329e-05</v>
       </c>
       <c r="D76">
-        <v>-0.0006179125821465426</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0001676417292129346</v>
+      </c>
+      <c r="E76">
+        <v>-3.392051187630548e-05</v>
+      </c>
+      <c r="F76">
+        <v>7.807748988661279e-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08492878935557878</v>
+        <v>0.08732292858079238</v>
       </c>
       <c r="C77">
-        <v>0.03779614306974658</v>
+        <v>0.007964638007808547</v>
       </c>
       <c r="D77">
-        <v>0.07208487850206084</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1132170170398211</v>
+      </c>
+      <c r="E77">
+        <v>-0.03839842098891041</v>
+      </c>
+      <c r="F77">
+        <v>0.03133707220363874</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1429574029665381</v>
+        <v>0.1010543281085007</v>
       </c>
       <c r="C78">
-        <v>0.03877378416019106</v>
+        <v>0.03954955431592266</v>
       </c>
       <c r="D78">
-        <v>0.01660474417457522</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1157720060179595</v>
+      </c>
+      <c r="E78">
+        <v>-0.07430678360027708</v>
+      </c>
+      <c r="F78">
+        <v>0.04555871786235767</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1396568584033863</v>
+        <v>0.1640901039383486</v>
       </c>
       <c r="C79">
-        <v>0.06655497130398833</v>
+        <v>0.0225602798924957</v>
       </c>
       <c r="D79">
-        <v>-0.01521282739789854</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0141564357147193</v>
+      </c>
+      <c r="E79">
+        <v>-0.04529509489523326</v>
+      </c>
+      <c r="F79">
+        <v>0.01087291972911227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07558938775911574</v>
+        <v>0.0827691929277104</v>
       </c>
       <c r="C80">
-        <v>0.04730582158007366</v>
+        <v>-0.00112861183216036</v>
       </c>
       <c r="D80">
-        <v>0.02711784630535226</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05693729467706144</v>
+      </c>
+      <c r="E80">
+        <v>-0.03635534373941079</v>
+      </c>
+      <c r="F80">
+        <v>-0.02169294043975517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.120443947702107</v>
+        <v>0.1207234623499228</v>
       </c>
       <c r="C81">
-        <v>0.04313659202098659</v>
+        <v>0.03192466399253518</v>
       </c>
       <c r="D81">
-        <v>0.005059855546620865</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01471553273690686</v>
+      </c>
+      <c r="E81">
+        <v>-0.05600310933767226</v>
+      </c>
+      <c r="F81">
+        <v>0.01772076334153025</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1502391566525418</v>
+        <v>0.1655592013653411</v>
       </c>
       <c r="C82">
-        <v>0.07426962099668993</v>
+        <v>0.02438293973797063</v>
       </c>
       <c r="D82">
-        <v>-0.002620018805986792</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003598373486570492</v>
+      </c>
+      <c r="E82">
+        <v>-0.02760451593096943</v>
+      </c>
+      <c r="F82">
+        <v>0.08087379741395498</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.0643876029762747</v>
+        <v>0.05968715178714806</v>
       </c>
       <c r="C83">
-        <v>0.03439809471926483</v>
+        <v>0.002760659109184782</v>
       </c>
       <c r="D83">
-        <v>0.02105197075338117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05073315941639142</v>
+      </c>
+      <c r="E83">
+        <v>-0.004635699713833038</v>
+      </c>
+      <c r="F83">
+        <v>-0.03010437313346928</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07418685177859437</v>
+        <v>0.05867595093548249</v>
       </c>
       <c r="C84">
-        <v>0.03159687061920997</v>
+        <v>0.01110711626895645</v>
       </c>
       <c r="D84">
-        <v>0.0408647914247352</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06351428444195675</v>
+      </c>
+      <c r="E84">
+        <v>-0.006069532331529222</v>
+      </c>
+      <c r="F84">
+        <v>0.003860593030397284</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1285364771354107</v>
+        <v>0.1364029557815516</v>
       </c>
       <c r="C85">
-        <v>0.05364133818443487</v>
+        <v>0.0278932064069206</v>
       </c>
       <c r="D85">
-        <v>-0.008726104295119172</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009663072109957602</v>
+      </c>
+      <c r="E85">
+        <v>-0.03689879545799925</v>
+      </c>
+      <c r="F85">
+        <v>0.04622270631497994</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.06397638259374026</v>
+        <v>0.09520489044551972</v>
       </c>
       <c r="C86">
-        <v>0.03900505196784462</v>
+        <v>-0.005357810151530774</v>
       </c>
       <c r="D86">
-        <v>-0.1018203214295098</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03952806017252219</v>
+      </c>
+      <c r="E86">
+        <v>-0.2193992591418759</v>
+      </c>
+      <c r="F86">
+        <v>-0.9079650146184043</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1312381066833221</v>
+        <v>0.09650049198929878</v>
       </c>
       <c r="C87">
-        <v>0.05515148386173307</v>
+        <v>0.01989127811785845</v>
       </c>
       <c r="D87">
-        <v>0.04576344982111259</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09427458105019171</v>
+      </c>
+      <c r="E87">
+        <v>0.05285717228923968</v>
+      </c>
+      <c r="F87">
+        <v>0.05008656859962503</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05019738548763188</v>
+        <v>0.06072874403312346</v>
       </c>
       <c r="C88">
-        <v>0.02560092592144663</v>
+        <v>0.002136016640228738</v>
       </c>
       <c r="D88">
-        <v>0.01343117680028075</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04922174109877312</v>
+      </c>
+      <c r="E88">
+        <v>-0.02390021882861893</v>
+      </c>
+      <c r="F88">
+        <v>0.01332150721491843</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.0749204662908325</v>
+        <v>0.1329793398300839</v>
       </c>
       <c r="C89">
-        <v>0.05252902864027179</v>
+        <v>0.01327906863708224</v>
       </c>
       <c r="D89">
-        <v>-0.2593640701433235</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2481890236412026</v>
+      </c>
+      <c r="E89">
+        <v>0.09011630288884144</v>
+      </c>
+      <c r="F89">
+        <v>-0.008556090504848268</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.08145579591328403</v>
+        <v>0.1508351810505822</v>
       </c>
       <c r="C90">
-        <v>0.0324274765634787</v>
+        <v>0.03271647200127733</v>
       </c>
       <c r="D90">
-        <v>-0.2448871064447171</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2700670743226216</v>
+      </c>
+      <c r="E90">
+        <v>0.1125735082233213</v>
+      </c>
+      <c r="F90">
+        <v>-0.003820394040971009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1025071688787528</v>
+        <v>0.1205178589507028</v>
       </c>
       <c r="C91">
-        <v>0.04976062661437473</v>
+        <v>0.01917746515198051</v>
       </c>
       <c r="D91">
-        <v>-0.03170282881577394</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01421794653184832</v>
+      </c>
+      <c r="E91">
+        <v>-0.05588435654630292</v>
+      </c>
+      <c r="F91">
+        <v>-0.001382115733328206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.07452258447153932</v>
+        <v>0.1481100102899718</v>
       </c>
       <c r="C92">
-        <v>0.04527019366891286</v>
+        <v>0.0241108457864807</v>
       </c>
       <c r="D92">
-        <v>-0.2562527018277032</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2924261017180492</v>
+      </c>
+      <c r="E92">
+        <v>0.1017543321376363</v>
+      </c>
+      <c r="F92">
+        <v>-0.012497957812316</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.09055831911991435</v>
+        <v>0.1520991223046381</v>
       </c>
       <c r="C93">
-        <v>0.04414224562998965</v>
+        <v>0.02837915157973274</v>
       </c>
       <c r="D93">
-        <v>-0.2615973209641002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2690370602623824</v>
+      </c>
+      <c r="E93">
+        <v>0.07800810747026675</v>
+      </c>
+      <c r="F93">
+        <v>0.003114934946983128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1366750782628035</v>
+        <v>0.1297803332176659</v>
       </c>
       <c r="C94">
-        <v>0.06300814420147857</v>
+        <v>0.02462621013981255</v>
       </c>
       <c r="D94">
-        <v>0.01188576821009758</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04291006476260428</v>
+      </c>
+      <c r="E94">
+        <v>-0.0568805498971658</v>
+      </c>
+      <c r="F94">
+        <v>0.03712189939948759</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1135640852604486</v>
+        <v>0.1268504490488431</v>
       </c>
       <c r="C95">
-        <v>0.0630184146809236</v>
+        <v>0.003276317735469276</v>
       </c>
       <c r="D95">
-        <v>0.04612357897608808</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09313890723395361</v>
+      </c>
+      <c r="E95">
+        <v>-0.0467490089180856</v>
+      </c>
+      <c r="F95">
+        <v>-0.008184206040016021</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.4603294602115324</v>
+        <v>0.1068087520460419</v>
       </c>
       <c r="C96">
-        <v>0.8825582573020919</v>
+        <v>-0.987385048724792</v>
       </c>
       <c r="D96">
-        <v>-0.02082231632560412</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04930061613149889</v>
+      </c>
+      <c r="E96">
+        <v>-0.05488429745851329</v>
+      </c>
+      <c r="F96">
+        <v>0.0418778047815962</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1415342052504565</v>
+        <v>0.1928356653609425</v>
       </c>
       <c r="C97">
-        <v>0.1015901455051592</v>
+        <v>-0.007418854853275638</v>
       </c>
       <c r="D97">
-        <v>-0.07871622156405195</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0163059329630873</v>
+      </c>
+      <c r="E97">
+        <v>-0.01932350921526453</v>
+      </c>
+      <c r="F97">
+        <v>-0.08475744820028355</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1665688543888774</v>
+        <v>0.2047786748940118</v>
       </c>
       <c r="C98">
-        <v>0.1030995169614299</v>
+        <v>0.006880786592208831</v>
       </c>
       <c r="D98">
-        <v>-0.000139538055349029</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01316715114938958</v>
+      </c>
+      <c r="E98">
+        <v>0.08257873577071818</v>
+      </c>
+      <c r="F98">
+        <v>-0.09154515730077092</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.04649121901081458</v>
+        <v>0.05525322282879432</v>
       </c>
       <c r="C99">
-        <v>0.03388961254164321</v>
+        <v>-0.004676856252912241</v>
       </c>
       <c r="D99">
-        <v>0.008280391088226433</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03902554633484581</v>
+      </c>
+      <c r="E99">
+        <v>-0.02240753393505814</v>
+      </c>
+      <c r="F99">
+        <v>0.001399474052819435</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1010059800149212</v>
+        <v>0.1252694509480332</v>
       </c>
       <c r="C100">
-        <v>0.09916931525614744</v>
+        <v>-0.05470386957268387</v>
       </c>
       <c r="D100">
-        <v>0.6050496526072778</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.343213974413685</v>
+      </c>
+      <c r="E100">
+        <v>0.8883853183170812</v>
+      </c>
+      <c r="F100">
+        <v>-0.1489633212415004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02324830631171035</v>
+        <v>0.02735248953005553</v>
       </c>
       <c r="C101">
-        <v>0.002608716034369758</v>
+        <v>0.008376770556827035</v>
       </c>
       <c r="D101">
-        <v>0.006977292362396968</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03054324544989196</v>
+      </c>
+      <c r="E101">
+        <v>-0.01026104241956908</v>
+      </c>
+      <c r="F101">
+        <v>-0.01245654947512847</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
